--- a/data/ED/program_url_pair_sample.xlsx
+++ b/data/ED/program_url_pair_sample.xlsx
@@ -1,40 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\英硕项目\0_Code\data\ED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6A69C497011AD3019960DCF050B4D0F758AFFA66" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{728257FD-1BFD-4181-8C0F-C9FD228970C4}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="27630" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+  <si>
+    <t>Program Name</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Faculty</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>MCouns Counselling (Interpersonal Dialogue)-2023不开放申请</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=520</t>
+  </si>
+  <si>
+    <t>MSc Carbon Management</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=412</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MSc Counselling Studies</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=131</t>
+  </si>
+  <si>
+    <t>MSc Earth Observation and Geoinformation Management</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=874</t>
+  </si>
+  <si>
+    <t>MSc Ecological Economics</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=29</t>
+  </si>
+  <si>
+    <t>MSc Energy, Society and Sustainability</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2022&amp;id=934</t>
+  </si>
+  <si>
+    <t>MSc Environment and Development</t>
+  </si>
+  <si>
+    <t>MSc Environment, Culture and Society</t>
+  </si>
+  <si>
+    <t>MSc Environmental Protection and Management</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=30</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=395</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=31</t>
+  </si>
+  <si>
+    <t>MSc Geographical Information Science</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=74</t>
+  </si>
+  <si>
+    <t>MSc Human Anatomy</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=648</t>
+  </si>
+  <si>
+    <t>MSc Materials Chemistry</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=448</t>
+  </si>
+  <si>
+    <t>MSc Medicinal and Biological Chemistry</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=450</t>
+  </si>
+  <si>
+    <t>MSc Soils and Sustainability</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=781</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <name val="Calibri"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <family val="2"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,85 +188,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="2">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -408,219 +527,186 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Program Name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>URL</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Faculty</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>accounting and finance  
-    msc</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=416</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>acoustics and music technology  
-    msc</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=478</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>advanced chemical engineering  
-    msc</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=913</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>online
-    advanced clinical practice (online learning)  
-    pgprofdev</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=910</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>advanced nursing  
-    msc</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=419</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>online
-    advanced nursing (online learning)  
-    msc</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1049</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>advanced power engineering  
-    msc</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=960</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>advanced social work studies (mental health officer award)  
-    pgcert</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=634</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>advanced sustainable design  
-    msc</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=417</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>advanced technology for financial computing  
-    msc</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=992</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="132" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="162" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{6948CE15-0607-4DD6-A51D-7BE1B676B84B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{1EEF534F-8087-49B2-B55E-6FF247046B15}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{9869E82A-62D8-42A8-82CD-1AF6798352B2}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{AB417078-56B8-4BC5-8D64-18A1608CF423}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{93ABEE38-2046-4193-BDB5-9F91A0A598B9}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{A2A51619-CD50-4CED-B31B-E48960D0EE17}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{BA123C55-10D5-42FE-8D0D-7BEC12B89AD7}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{824088BF-4ACC-4293-B09D-4A299A60862C}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{EEF809F4-F141-4270-AEF4-96F3F5F3F0FE}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{0154C582-C79B-401A-808E-6F033CD6A59E}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{2769F085-C87C-47AC-BE52-3B2C902ACCF6}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{8467874A-77CA-4B10-B030-41AAAF809E9D}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{109827D1-2EDC-4A18-9A45-0DF1E8328383}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{37C66D4B-142B-47BB-A050-D9171E11F809}"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/ED/program_url_pair_sample.xlsx
+++ b/data/ED/program_url_pair_sample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\OneDrive\英硕项目\0_Code\data\ED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6A69C497011AD3019960DCF050B4D0F758AFFA66" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{728257FD-1BFD-4181-8C0F-C9FD228970C4}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="113_{B0733BF8-BFB3-4BA7-8B91-0953EA6F1E7E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9394106C-E47F-4693-9CF7-5EFB66AD4D0F}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="0" windowWidth="27630" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="0" windowWidth="27630" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
   <si>
     <t>Program Name</t>
   </si>
@@ -34,109 +34,216 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>MCouns Counselling (Interpersonal Dialogue)-2023不开放申请</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=520</t>
-  </si>
-  <si>
-    <t>MSc Carbon Management</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=412</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSc Counselling Studies</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=131</t>
-  </si>
-  <si>
-    <t>MSc Earth Observation and Geoinformation Management</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=874</t>
-  </si>
-  <si>
-    <t>MSc Ecological Economics</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=29</t>
-  </si>
-  <si>
-    <t>MSc Energy, Society and Sustainability</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2022&amp;id=934</t>
-  </si>
-  <si>
-    <t>MSc Environment and Development</t>
-  </si>
-  <si>
-    <t>MSc Environment, Culture and Society</t>
-  </si>
-  <si>
-    <t>MSc Environmental Protection and Management</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=30</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=395</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=31</t>
-  </si>
-  <si>
-    <t>MSc Geographical Information Science</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=74</t>
-  </si>
-  <si>
-    <t>MSc Human Anatomy</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=648</t>
-  </si>
-  <si>
-    <t>MSc Materials Chemistry</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=448</t>
-  </si>
-  <si>
-    <t>MSc Medicinal and Biological Chemistry</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=450</t>
-  </si>
-  <si>
-    <t>MSc Soils and Sustainability</t>
-  </si>
-  <si>
-    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=781</t>
+    <t>Master's Corporate Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=787</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Master's European Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=163</t>
+  </si>
+  <si>
+    <t>Master's Commercial Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=161</t>
+  </si>
+  <si>
+    <t>Master's Global Environment And Climate Change Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=642</t>
+  </si>
+  <si>
+    <t>Master's International Economic Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=686</t>
+  </si>
+  <si>
+    <t>Master's International Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=166</t>
+  </si>
+  <si>
+    <t>Master's Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=167</t>
+  </si>
+  <si>
+    <t>Master's Intellectual Property Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=641</t>
+  </si>
+  <si>
+    <t>Msc Global Crime, Justice And Security</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=621</t>
+  </si>
+  <si>
+    <t>Master's Online Innovation, Technology And The Law (online Learning) Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=164</t>
+  </si>
+  <si>
+    <t>Master's Criminal Law And Criminal Justice Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=772</t>
+  </si>
+  <si>
+    <t>Msc Criminology And Criminal Justice</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=162</t>
+  </si>
+  <si>
+    <t>Msc Mathematical Economics And Econometrics</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=1003</t>
+  </si>
+  <si>
+    <t>Master's Online International Commercial Law And Practice (online Learning) Llm</t>
+  </si>
+  <si>
+    <t>Master's Online Law (online Learning) Pgcert</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=825</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=782</t>
+  </si>
+  <si>
+    <t>Master's Online Rcvs Certificate In Advanced Veterinary Practice (online Learning) Pgprofdev</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=888</t>
+  </si>
+  <si>
+    <t>Master's Innovation, Technology And The Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=503</t>
+  </si>
+  <si>
+    <t>Msc Urban Strategies And Design</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=822</t>
+  </si>
+  <si>
+    <t>Master's Outdoor Environmental And Sustainability Education Msc, Pgdip, Pgcert</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=382</t>
+  </si>
+  <si>
+    <t>Msc Economics / Economics (econometrics) / Economics (finance)</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=272</t>
+  </si>
+  <si>
+    <t>Master's Online Law (online Learning) Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=767</t>
+  </si>
+  <si>
+    <t>Master's Online Information Technology Law (online Learning) Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=502</t>
+  </si>
+  <si>
+    <t>Master's Online Medical Law And Ethics (online Learning) Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=505</t>
+  </si>
+  <si>
+    <t>Master's Comparative And European Private Law Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=684</t>
+  </si>
+  <si>
+    <t>Master's Outdoor Education Msc, Pgdip, Pgcert</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=115</t>
+  </si>
+  <si>
+    <t>Master's Human Rights Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=845</t>
+  </si>
+  <si>
+    <t>Master's International Banking Law And Finance Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=859</t>
+  </si>
+  <si>
+    <t>Master's Professional Legal Practice Diploma</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=675</t>
+  </si>
+  <si>
+    <t>Master's Medical Law And Ethics Llm</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=867</t>
+  </si>
+  <si>
+    <t>Master's Economics Phd With Integrated Study</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=278</t>
+  </si>
+  <si>
+    <t>Master's Law Llm By Research</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=993</t>
+  </si>
+  <si>
+    <t>Master's Inclusive Education Msc, Pgdip, Pgcert</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=378</t>
+  </si>
+  <si>
+    <t>Master's Law Phd</t>
+  </si>
+  <si>
+    <t>https://www.ed.ac.uk/studying/postgraduate/degrees/index.php?r=site/view&amp;edition=2023&amp;id=168</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
@@ -153,24 +260,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +269,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -188,43 +277,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -528,15 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -547,165 +607,304 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" t="s">
         <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>19</v>
+      <c r="B8" t="s">
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
+    <row r="9" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
         <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
         <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="132" x14ac:dyDescent="0.15">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="162" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6948CE15-0607-4DD6-A51D-7BE1B676B84B}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{1EEF534F-8087-49B2-B55E-6FF247046B15}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{9869E82A-62D8-42A8-82CD-1AF6798352B2}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{AB417078-56B8-4BC5-8D64-18A1608CF423}"/>
-    <hyperlink ref="B6" r:id="rId5" xr:uid="{93ABEE38-2046-4193-BDB5-9F91A0A598B9}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{A2A51619-CD50-4CED-B31B-E48960D0EE17}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{BA123C55-10D5-42FE-8D0D-7BEC12B89AD7}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{824088BF-4ACC-4293-B09D-4A299A60862C}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{EEF809F4-F141-4270-AEF4-96F3F5F3F0FE}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{0154C582-C79B-401A-808E-6F033CD6A59E}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{2769F085-C87C-47AC-BE52-3B2C902ACCF6}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{8467874A-77CA-4B10-B030-41AAAF809E9D}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{109827D1-2EDC-4A18-9A45-0DF1E8328383}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{37C66D4B-142B-47BB-A050-D9171E11F809}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{1E2B46FC-8B32-400A-A41A-5C0ABBBBAF47}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
